--- a/biology/Botanique/Sarriette_vulgaire/Sarriette_vulgaire.xlsx
+++ b/biology/Botanique/Sarriette_vulgaire/Sarriette_vulgaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinopodium vulgare, le Clinopode commun ou la Sariette commune ou le Grand Basilic, est une plante herbacée vivace de la famille des Lamiaceae et du genre Clinopodium.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Clinopode commun mesure de 30 à 70 cm de haut, les limbes foliaires sont légèrement dentés et densément pubescents à la face supérieure.
 Cette espèce est sans odeur, contrairement aux autres calaments.
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce eurasiatique, subméditerranéenne.
-Habitat
-Espèce mésophile à mésoxérophile qui affectionne les sols calcaires.
 </t>
         </is>
       </c>
@@ -573,15 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thérapeutique
-C'est une plante médicinale utilisée comme tonique.
-Autres
-La plante est tinctoriale et fournit une teinture jaune. C'est une plante mellifère.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce mésophile à mésoxérophile qui affectionne les sols calcaires.
 </t>
         </is>
       </c>
@@ -607,12 +624,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Thérapeutique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante médicinale utilisée comme tonique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarriette_vulgaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_vulgaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est tinctoriale et fournit une teinture jaune. C'est une plante mellifère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarriette_vulgaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_vulgaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A l'état non fleuri, cette espèce peut être confondue avec Origanum vulgare (l'origan) dont le limbe foliaire est muni de glandes translucides (visibles à la loupe) à sa face inférieure et dont le limbe foliaire est glabre ou garni de poils épars à la face supérieure[1].  
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'état non fleuri, cette espèce peut être confondue avec Origanum vulgare (l'origan) dont le limbe foliaire est muni de glandes translucides (visibles à la loupe) à sa face inférieure et dont le limbe foliaire est glabre ou garni de poils épars à la face supérieure.  
 </t>
         </is>
       </c>
